--- a/biology/Médecine/Phytothérapie_à_La_Réunion/Phytothérapie_à_La_Réunion.xlsx
+++ b/biology/Médecine/Phytothérapie_à_La_Réunion/Phytothérapie_à_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phytoth%C3%A9rapie_%C3%A0_La_R%C3%A9union</t>
+          <t>Phytothérapie_à_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La phytothérapie est une pratique traditionnelle à La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. De fait, d'après l'historien Prosper Ève, la grande connaissance qu'ont les Réunionnais des plantes médicinales est un legs de la période durant laquelle on pratiqua l'esclavage à Bourbon, le marronnage qu'elle suscita conduisant les esclaves en fuite à développer un savoir abouti de l'environnement naturel des Hauts de ce territoire insulaire[1], et notamment de la flore endémique de La Réunion.
-Les savoir-faire et la pratique des simples à la Réunion est inscrit à l'inventaire du patrimoine culturel immatériel en France en 2018[2]. 
+La phytothérapie est une pratique traditionnelle à La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. De fait, d'après l'historien Prosper Ève, la grande connaissance qu'ont les Réunionnais des plantes médicinales est un legs de la période durant laquelle on pratiqua l'esclavage à Bourbon, le marronnage qu'elle suscita conduisant les esclaves en fuite à développer un savoir abouti de l'environnement naturel des Hauts de ce territoire insulaire, et notamment de la flore endémique de La Réunion.
+Les savoir-faire et la pratique des simples à la Réunion est inscrit à l'inventaire du patrimoine culturel immatériel en France en 2018. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phytoth%C3%A9rapie_%C3%A0_La_R%C3%A9union</t>
+          <t>Phytothérapie_à_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Plantes de La Réunion reconnues dans la pharmacopée française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'Association pour les plantes aromatiques et médicinales de la Réunion (APLAMEDOM Réunion) œuvre depuis 2012 pour faire inscrire à la pharmacopée française (ANSM) des plantes utilisées localement. En 2017, la liste en compte 19 reconnues[3]. Parmi les 650 plantes médicinales potentielles, 2 à 3 plantes sont proposées chaque année et le choix s'appuie sur des témoignages recueillis auprès de la population, notamment des tisaneurs et des personnes âgées[4], mais aussi grâce au concours "Zerbaz péi" qui s'adresse à un public scolaire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'Association pour les plantes aromatiques et médicinales de la Réunion (APLAMEDOM Réunion) œuvre depuis 2012 pour faire inscrire à la pharmacopée française (ANSM) des plantes utilisées localement. En 2017, la liste en compte 19 reconnues. Parmi les 650 plantes médicinales potentielles, 2 à 3 plantes sont proposées chaque année et le choix s'appuie sur des témoignages recueillis auprès de la population, notamment des tisaneurs et des personnes âgées, mais aussi grâce au concours "Zerbaz péi" qui s'adresse à un public scolaire.
 Antirhea borbonica (feuille)
 Pittosporum senacia (feuille)
 Vepris lanceolata (feuille)
@@ -532,7 +546,7 @@
 Nuxia verticillata (feuille)Hypericum lanceolatum (sommités fleuries, fleurs,	feuilles)
 Turraea thouarsiana (tige feuillée)
 Phyllanthus casticum (écorce)
-Syzygium cumini (graines)[6]</t>
+Syzygium cumini (graines)</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phytoth%C3%A9rapie_%C3%A0_La_R%C3%A9union</t>
+          <t>Phytothérapie_à_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Tisanes locales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">-Anis, menthe, 			ayapana
 -cœurs de pêches, faham 
